--- a/biology/Botanique/Forêt_de_Bercé/Forêt_de_Bercé.xlsx
+++ b/biology/Botanique/Forêt_de_Bercé/Forêt_de_Bercé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Berc%C3%A9</t>
+          <t>Forêt_de_Bercé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Bercé s'étend au sud du département de la Sarthe, sur les communes du Jupilles, Mayet, Lavernat, Beaumont-Pied-de-Bœuf, Thoiré-sur-Dinan, Chahaignes, Marigné-Laillé, Pruillé-l'Éguillé, Saint-Vincent-du-Lorouër, Saint-Pierre-du-Lorouër, Saint-Mars-d'Outillé. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Berc%C3%A9</t>
+          <t>Forêt_de_Bercé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le massif de Bercé dispose d'atouts : des futaies de chêne sessile produisant un bois d’une qualité mondialement reconnue, des vallons pittoresques et des paysages structurés par un réseau de routes forestières qui se rejoignent dans des carrefours en étoile, un patrimoine naturel et culturel de grande valeur[1]. Ces éléments, qui contribuent à l'intérêt scientifique, économique et social du territoire ont conduit à la candidature de Bercé au label Forêt d'Exception. Elle obtient ce titre en mars 2017 et devient ainsi la 5e forêt de France à l'obtenir[3].                    
-Elle est en majorité composée de feuillus, de chênes sessiles[4], de hêtres[2], de bouleaux et de pins[1].
-La forêt domaniale de Bercé illustre les liens ancestraux qui unissent les forestiers et la forêt. Fruit de plusieurs siècles de sylviculture, les chênes de Bercé ont acquis une réputation mondiale pour leur qualité exceptionnelle. Ancienne forêt royale destinée à fournir la marine, ce massif produit des chênes recherchés pour la tonnellerie, connus des professionnels sous l'appellation Jupilles. Ses futaies en font l’une des plus belles forêts de France[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le massif de Bercé dispose d'atouts : des futaies de chêne sessile produisant un bois d’une qualité mondialement reconnue, des vallons pittoresques et des paysages structurés par un réseau de routes forestières qui se rejoignent dans des carrefours en étoile, un patrimoine naturel et culturel de grande valeur. Ces éléments, qui contribuent à l'intérêt scientifique, économique et social du territoire ont conduit à la candidature de Bercé au label Forêt d'Exception. Elle obtient ce titre en mars 2017 et devient ainsi la 5e forêt de France à l'obtenir.                    
+Elle est en majorité composée de feuillus, de chênes sessiles, de hêtres, de bouleaux et de pins.
+La forêt domaniale de Bercé illustre les liens ancestraux qui unissent les forestiers et la forêt. Fruit de plusieurs siècles de sylviculture, les chênes de Bercé ont acquis une réputation mondiale pour leur qualité exceptionnelle. Ancienne forêt royale destinée à fournir la marine, ce massif produit des chênes recherchés pour la tonnellerie, connus des professionnels sous l'appellation Jupilles. Ses futaies en font l’une des plus belles forêts de France.
 La forêt occupe un vaste plateau qui domine la vallée du Loir, entre les villes de Tours et du Mans. Elle est l'héritage de l'ancienne forêt gauloise des Carnutes. 
 Sur près des deux tiers de la surface, l'essence objectif est le Chêne sessile. Ailleurs, sur les sols plus pauvres, l'essence objectif est le Pin (sylvestre, maritime ou laricio). D'autres feuillus, comme le Hêtre, sont maintenus en sous-étage en faveur de la biodiversité ou, localement, pour leur intérêt paysager.
 L'attrait principal de la forêt de Bercé réside dans la majesté de ses peuplements. Les nombreuses allées forestières qui sillonnent le massif invitent à les parcourir à pied, à VTT ou à cheval. Leur tracé rectiligne, ponctué de carrefours en étoile (les « ronds »), ouvre d'amples perspectives. Le GR 36 traverse la partie ouest du massif.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Berc%C3%A9</t>
+          <t>Forêt_de_Bercé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Histoire[6]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De - 6 000 à - 400 le plateau calaisien commence à être colonisé par les chênes grâce à l'action bienfaisante du Geai. Les hommes du néolithique défrichent.
 Il ne reste que des débris isolés, de l'an 1 au IVe siècle de l'immense « bois dit des Carnutes », domaine gaulois des empereurs romains la « Carnuta Sylva », attribué au fisc impérial à titre de res nullius (n’appartenant à personne). Les forges se développent sur la forêt, elles cesseront toute activité une fois passé le Moyen Âge.
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Berc%C3%A9</t>
+          <t>Forêt_de_Bercé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,16 +613,18 @@
           <t>Arbres remarquables[2],[7]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chêne Roulleau de la Roussière : Baptisé le 27 mai 1952 du nom de l’inspecteur des Eaux et Forêts en poste au Mans entre 1885 et 1907. Louis René Roulleau de la Roussière, conscient de la grande valeur patrimoniale de la futaie des Clos, participa activement à sa préservation en refusant son exploitation, initialement prévue dans l’aménagement en 1890 (plan de gestion de la forêt). Ce chêne mesure 51 m de hauteur.
-Chêne Muriel[8] : Baptisé le 9 mars 2002, ce chêne rend hommage à la mémoire du commis forestier Georges France Muriel, membre du réseau de résistance Alliance. Arrêté au Mans le 9 mars 1944, il fut interné au camp alsacien de Struthof et exécuté le 1er septembre de cette même année. Ce chêne mesure 43,50 mètres de hauteur.
+Chêne Muriel : Baptisé le 9 mars 2002, ce chêne rend hommage à la mémoire du commis forestier Georges France Muriel, membre du réseau de résistance Alliance. Arrêté au Mans le 9 mars 1944, il fut interné au camp alsacien de Struthof et exécuté le 1er septembre de cette même année. Ce chêne mesure 43,50 mètres de hauteur.
 Chêne Boppe : « Le Roi est mort…vive le Roi… ». Baptisé le 14 juillet 1935, ce chêne est le successeur de l’ancien chêne du même nom. Il reprend le nom du directeur de l’École forestière de Nancy. Lucien Boppe participa à la mobilisation en faveur de la préservation de la futaie des Clos, mouvement qui résonna en 1907 jusqu’à la tribune de la Chambre des députés. En conclusion du débat, le ministre de l’Agriculture de l’époque promit qu’on « ne touchera pas un seul arbre de cette splendide futaie. » Ce chêne mesure 47 m de hauteur.
 Chêne Potel : Baptisé par les forestiers du nom de l’inspecteur des Eaux et Forêts en poste au Mans entre 1919 et 1928. Raoul Louis-Amédée Potel (1862-1937), auteur de publications sur l’histoire de la forêt de Bercé, fut localement un précurseur dans le domaine de l’aménagement touristique des forêts alors préconisé par l’État. Ce chêne mesure 50 m de hauteur.
 Souche de l’ancien chêne Boppe : C’était le plus haut chêne (sans branches) de la futaie des Clos et l’un des plus gros. Il fut baptisé le 8 juin 1894 et porte le nom du directeur de l’École forestière de Nancy (Lucien Boppe) de 1881 à 1898. Frappé par la foudre le 18 décembre 1934, il fut abattu le 22 juillet 1935, après que l’on a baptisé son successeur, situé un peu plus loin sur le sentier.
 Chêne Lorne : Baptisé le 27 septembre 2008 du nom de l’officier des Eaux et Forêts Rémond Lorne en poste au Mans de 1949 à 1969. Il fut l’initiateur de la méthode actuelle dite des arbres objectifs. Ce chêne en est la parfaite illustration.
-La forêt abrite sur huit hectares des arbres datant du XVIIe siècle[9].
-En mars 2021, huit chênes de la forêt sont choisis pour la reconstruction de la charpente de la cathédrale Notre-Dame de Paris, incendiée en 2019. Ils ont environ 230 ans. Au total, environ 2000 arbres prélevés à travers la France seront nécessaires pour les travaux[9].</t>
+La forêt abrite sur huit hectares des arbres datant du XVIIe siècle.
+En mars 2021, huit chênes de la forêt sont choisis pour la reconstruction de la charpente de la cathédrale Notre-Dame de Paris, incendiée en 2019. Ils ont environ 230 ans. Au total, environ 2000 arbres prélevés à travers la France seront nécessaires pour les travaux.</t>
         </is>
       </c>
     </row>
@@ -616,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Berc%C3%A9</t>
+          <t>Forêt_de_Bercé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,7 +652,9 @@
           <t>Site remarquable</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La source de l'Hermitière (ou vallon de l'Hermitière) est l'un des quatre sites emblématiques de la forêt avec la futaie des Clos (chênes tricentenaires) et le chêne « Boppe », la fontaine de la Coudre et Carnuta, musée consacré à la forêt de Bercé et aux relations entre l'Homme et la forêt. Dès le XIXe siècle, la fontaine de l’Hermitière est un lieu festif qui attirait les gens des environs  pour un pique-nique dominical ou un moment convivial. 
 </t>
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Berc%C3%A9</t>
+          <t>Forêt_de_Bercé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,14 +685,16 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt fait partie des Zones Naturelles d’Intérêt Écologique, Faunistique et Floristique dit ZNIEFF. Elle est classée de type II.   
 Le sous-sol de craie recouvert de limons est particulièrement favorable à la chênaie, excepté à l'ouest où les sols plus pauvres (sables) sont occupés par des landes et des pins. Plusieurs vallées, parcourues par des ruisseaux qui s'assèchent parfois en été, entaillent le plateau alors que de nombreuses mares ponctuent la forêt. Créés à l'origine pour abreuver les animaux ou extraire de l'argile, ces points d'eau témoignent d'une occupation humaine très ancienne et sont désormais des habitats favorables à la biodiversité et notamment aux amphibiens.
 On y trouve de nombreuses espèces protégées, le lycopode en massue (Lycopodium clavatum), le gomphe serpentin (Ophiogomphus cecilia), le murin de Bechstein (Myotis bechsteinii, espèce menacée) et la loche d'étang (Misgurnus fossilis).
 Plusieurs parties se trouvent en zone Natura 2000.
-Des îlots de peuplements anciens ont une forte valeur patrimoniale. Ils sont conservés au-delà de l'âge d'exploitabilité (180 ans pour le Chêne sessile), comme la futaie des Clos qui, avec ses chênes tricentenaires, est le joyau local. De quoi offrir des habitats à tout un cortège d'oiseaux et d'insectes qui dépendent des bois âgés (pics, pique-prune, grand capricorne, lucane cerf-volant…)[5].
-Le massif de Bercé présente une grande diversité de paysages et d'habitats. Plusieurs espèces végétales sont protégées, notamment dans les zones humides, telles que la parisette à quatre feuilles et la laîche maigre (Carex strigosa). La grande faune est présente avec le chevreuil, le sanglier et le cerf[5].
+Des îlots de peuplements anciens ont une forte valeur patrimoniale. Ils sont conservés au-delà de l'âge d'exploitabilité (180 ans pour le Chêne sessile), comme la futaie des Clos qui, avec ses chênes tricentenaires, est le joyau local. De quoi offrir des habitats à tout un cortège d'oiseaux et d'insectes qui dépendent des bois âgés (pics, pique-prune, grand capricorne, lucane cerf-volant…).
+Le massif de Bercé présente une grande diversité de paysages et d'habitats. Plusieurs espèces végétales sont protégées, notamment dans les zones humides, telles que la parisette à quatre feuilles et la laîche maigre (Carex strigosa). La grande faune est présente avec le chevreuil, le sanglier et le cerf.
 </t>
         </is>
       </c>
